--- a/biology/Botanique/Schefflera_veitchii/Schefflera_veitchii.xlsx
+++ b/biology/Botanique/Schefflera_veitchii/Schefflera_veitchii.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Schefflera veitchii est une espèce de la famille des Araliaceae. Elle est endémique de la Nouvelle-Calédonie.
 </t>
@@ -513,18 +525,13 @@
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t xml:space="preserve">Aspect et forme générale
-Ce grand et bel arbre fournit un ombrage important. Il est particulièrement majestueux.
-Taille
-Il peut atteindre 15 à 20 mètres de haut, dont 5 à 6 mètres de tronc. Celui-ci peut atteindre 35cm  de diamètre.
-Écorce
-L'écorce est rugeuse, elle est de couleur marron clair.
-Feuillage
-Les feuilles sont palmées et composées. Les plus jeunes sont différentes des feuilles adultes. Les jeunes feuilles sont de couleur vert bronze, sont très fine, étroites et dentées. Les feuilles adultes sont beaucoup plus larges, de couleur d’un vert plus clair et ne sont plus dentées.
-Fleurs
-Les fleurs sont blanches et très discrètes. Elles forment de petites ombelles situées au bout des tiges. Elles attirent beaucoup les abeilles et les oiseaux melliphages (suceurs).
-Reproduction
-La floraison a lieu en été. Les fleurs donnent naissance à des fruits noirs et sphériques (5 mm de diamètre). Les graines de la plante germent facilement, mais on peut également une plante par bouturage. La plante grandit vite.
+          <t>Aspect et forme générale</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Ce grand et bel arbre fournit un ombrage important. Il est particulièrement majestueux.
 </t>
         </is>
       </c>
@@ -550,10 +557,197 @@
       </c>
       <c r="E4" t="inlineStr">
         <is>
+          <t>Description</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>Taille</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Il peut atteindre 15 à 20 mètres de haut, dont 5 à 6 mètres de tronc. Celui-ci peut atteindre 35cm  de diamètre.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Schefflera_veitchii</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Schefflera_veitchii</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>Description</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>Écorce</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">L'écorce est rugeuse, elle est de couleur marron clair.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Schefflera_veitchii</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Schefflera_veitchii</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>Description</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>Feuillage</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Les feuilles sont palmées et composées. Les plus jeunes sont différentes des feuilles adultes. Les jeunes feuilles sont de couleur vert bronze, sont très fine, étroites et dentées. Les feuilles adultes sont beaucoup plus larges, de couleur d’un vert plus clair et ne sont plus dentées.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Schefflera_veitchii</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Schefflera_veitchii</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>Description</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>Fleurs</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Les fleurs sont blanches et très discrètes. Elles forment de petites ombelles situées au bout des tiges. Elles attirent beaucoup les abeilles et les oiseaux melliphages (suceurs).
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>Schefflera_veitchii</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Schefflera_veitchii</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>Description</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>Reproduction</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t xml:space="preserve">La floraison a lieu en été. Les fleurs donnent naissance à des fruits noirs et sphériques (5 mm de diamètre). Les graines de la plante germent facilement, mais on peut également une plante par bouturage. La plante grandit vite.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>Schefflera_veitchii</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Schefflera_veitchii</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
           <t>Place dans notre forêt sèche</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F9" t="inlineStr"/>
+      <c r="G9" t="inlineStr"/>
+      <c r="H9" t="inlineStr">
         <is>
           <t xml:space="preserve">Cette plante n’est pas une espèce qui pousse uniquement en forêt sèche. On la trouve également dans les forêts humides et dans toutes les forêts intermédiaires. En forêt sèche, elle pousse plutôt dans les fonds de vallée. Elle est particulièrement broutée par les cerfs et le bétail.
 Ces fruits sont consommés par les loriquets et tous les oiseaux frugivores en général.
